--- a/IDE/src/test/etest/traceability matrix sikulix.xlsx
+++ b/IDE/src/test/etest/traceability matrix sikulix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b5d35391edc11a6/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\JavaProjects\sikulix\IDE\src\test\etest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F206D7BB-92C9-4C71-AE6D-7CAA201E200E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10EF876-3943-4A3D-B542-DB587187A539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17745" firstSheet="1" activeTab="1" xr2:uid="{76B18633-0BE1-4AEF-AA13-4C8CC8912954}"/>
+    <workbookView xWindow="2640" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{76B18633-0BE1-4AEF-AA13-4C8CC8912954}"/>
   </bookViews>
   <sheets>
     <sheet name="ExploratoryTests" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="179">
   <si>
     <t>test case id</t>
   </si>
@@ -581,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,18 +1006,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD0DAA-8F6A-43B7-9C16-96AB2F0C188D}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="30.75">
+    <row r="3" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30.75">
+    <row r="4" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30.75">
+    <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30.75">
+    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1289,7 +1289,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1307,7 +1307,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1325,7 +1325,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1343,7 +1343,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1361,7 +1361,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -1379,7 +1379,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1397,7 +1397,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -1415,7 +1415,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -1433,7 +1433,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -1451,7 +1451,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1469,7 +1469,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -1487,7 +1487,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -1512,22 +1512,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C2E466-EB89-44CF-A148-68CE280F00B6}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:O8"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1568,10 +1568,70 @@
         <v>34</v>
       </c>
       <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1589,28 +1649,81 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="O3" s="2">
-        <f>COUNTIF(B3:N3,"x")</f>
+      <c r="AI3" s="2">
+        <f>COUNTIF(B3:AH3,"x")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75">
+    <row r="4" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="O4" s="2">
-        <f t="shared" ref="O4:O8" si="0">COUNTIF(B4:N4,"x")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75">
+      <c r="X4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" s="2">
+        <f t="shared" ref="AI4:AI8" si="0">COUNTIF(B4:AH4,"x")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1627,22 +1740,34 @@
       <c r="N5" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI5" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="O6" s="2">
+      <c r="AI6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75">
+    <row r="7" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1665,12 +1790,60 @@
       <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1684,357 +1857,28 @@
       <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="2">
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI8" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="O11" s="2">
-        <f>COUNTIF(B11:N11,"x")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="O12" s="2">
-        <f t="shared" ref="O12:O16" si="1">COUNTIF(B12:N12,"x")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75">
-      <c r="A13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="O14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75">
-      <c r="A15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="2">
-        <f>COUNTIF(B15:N15,"x")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="7"/>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75">
-      <c r="A20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="O20" s="2">
-        <f>COUNTIF(B20:N20,"x")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75">
-      <c r="A21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" ref="O21:O25" si="2">COUNTIF(B21:N21,"x")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75">
-      <c r="A22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="O22" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="O23" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75">
-      <c r="A24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="2">
-        <f>COUNTIF(B24:N24,"x")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75">
-      <c r="A25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="O25" s="2">
-        <f t="shared" ref="O25" si="3">COUNTIF(B25:N25,"x")</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2050,7 +1894,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -2064,7 +1908,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2072,7 +1916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2080,7 +1924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2088,7 +1932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -2096,7 +1940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2104,7 +1948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2112,7 +1956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2120,7 +1964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -2128,7 +1972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2136,7 +1980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2144,7 +1988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2152,7 +1996,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -2160,7 +2004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -2168,7 +2012,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2176,7 +2020,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2184,7 +2028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2192,7 +2036,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2200,7 +2044,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -2208,7 +2052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -2216,7 +2060,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -2224,7 +2068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -2232,7 +2076,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -2240,7 +2084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -2248,7 +2092,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2256,7 +2100,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2264,7 +2108,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -2272,7 +2116,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -2280,7 +2124,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -2288,7 +2132,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -2296,7 +2140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -2304,7 +2148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -2312,7 +2156,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -2320,7 +2164,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -2361,7 +2205,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -2372,7 +2216,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -2389,7 +2233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -2400,7 +2244,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -2423,7 +2267,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -2465,7 +2309,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -2479,7 +2323,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -2505,7 +2349,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -2522,7 +2366,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -2533,7 +2377,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -2544,7 +2388,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>177</v>
       </c>
